--- a/DND/Magic Items Tracker.xlsx
+++ b/DND/Magic Items Tracker.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Tracker" sheetId="1" r:id="rId1"/>
@@ -13,12 +13,12 @@
     <sheet name="Feet" sheetId="5" r:id="rId4"/>
     <sheet name="Weapons" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="80">
   <si>
     <t>Coloneous</t>
   </si>
@@ -223,24 +223,58 @@
     <t>Jealousy is a finely crafted steel shortsword.  It is slightly smaller than it's counterpart, Exemplarly.  It's metal is dull and it's base has a vertically pertruding black iron spike.  It's hilt is black iron with a green leather handle.</t>
   </si>
   <si>
-    <t>+2 to attack/damage. On successful hit, target makes constitution saving throw (DC d20 roll without modifier). Failed saves take 1d6 Radiant Damage.</t>
-  </si>
-  <si>
-    <t>+1 to attack/damage. 
-- If Jealousy successfully hits on this turn and Exemplarly does not, automatically deals 2d6 necrotic damage to target. 
-- If Exemplarly successfully hits on this turn and Jealousy does not, automatically deals 1d6 necrotic damage to wielder. 
-- If both Exemplarly and Jealousy hit on this turn, target makes a constitution saving throw (DC d20 roll without modifier). Failed saves take 1d6 Necrotic Damage.</t>
-  </si>
-  <si>
     <t>If a player is attuned to Exemplarly and is not attuned to Jealousy for more than 24 hours, the player is cursed.
 Curse of Jealousy: If the player is making a melee attack it must wield Exemplarly in at least one hand.  The player may not attack with Exemplarly. To get rid of this curse, the player must attune to Jealousy.</t>
+  </si>
+  <si>
+    <t>Roll:</t>
+  </si>
+  <si>
+    <t>Rarity:</t>
+  </si>
+  <si>
+    <t>C: Common
+UC: Uncommon
+R: Rare
+VR: Very Rare
+L: Lengendary</t>
+  </si>
+  <si>
+    <t>Value:</t>
+  </si>
+  <si>
+    <t>Item Value Calculator</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>5,000g</t>
+  </si>
+  <si>
+    <t>2,075g</t>
+  </si>
+  <si>
+    <t>4,550g</t>
+  </si>
+  <si>
+    <t>3,200g</t>
+  </si>
+  <si>
+    <t>+2 to attack/damage. On successful hit, target makes constitution saving throw (DC d20 roll without modifier). Failed saves take 1d4 Radiant Damage.</t>
+  </si>
+  <si>
+    <t>+1 to attack/damage. 
+- If Jealousy successfully hits on this turn and Exemplarly does not, automatically deals 1d4 necrotic damage to target. 
+- If Exemplarly successfully hits on this turn and Jealousy does not, automatically deals 1d4 necrotic damage to wielder. 
+- If both Exemplarly and Jealousy hit on this turn, target makes a constitution saving throw (DC d20 roll without modifier). Failed saves take 1d4 Necrotic Damage.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -339,8 +373,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +475,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -902,11 +958,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1045,12 +1112,6 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1067,51 +1128,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -1121,29 +1140,104 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1456,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,16 +1565,16 @@
     <row r="1" spans="2:10" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="69" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -1491,7 +1585,7 @@
       </c>
     </row>
     <row r="3" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5"/>
@@ -1507,7 +1601,7 @@
       </c>
     </row>
     <row r="4" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="77" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7"/>
@@ -1523,7 +1617,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="83"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -1535,7 +1629,7 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="84" t="s">
+      <c r="B6" s="66" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="11"/>
@@ -1551,7 +1645,7 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="67" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1569,7 +1663,7 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="77" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="7"/>
@@ -1583,14 +1677,14 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="82" t="s">
+      <c r="B10" s="77" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7"/>
@@ -1599,28 +1693,28 @@
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="86"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="18"/>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="86"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="83"/>
+      <c r="B13" s="78"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="67" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="16"/>
@@ -1631,7 +1725,7 @@
       </c>
     </row>
     <row r="15" spans="2:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="67" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="16"/>
@@ -1642,7 +1736,7 @@
       <c r="F15" s="21"/>
     </row>
     <row r="16" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="77" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="22" t="s">
@@ -1659,7 +1753,7 @@
       </c>
     </row>
     <row r="17" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="86"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="25" t="s">
         <v>27</v>
       </c>
@@ -1674,7 +1768,7 @@
       </c>
     </row>
     <row r="18" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="86"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="25" t="s">
         <v>28</v>
       </c>
@@ -1689,7 +1783,7 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="39"/>
       <c r="D19" s="26" t="s">
         <v>30</v>
@@ -1702,7 +1796,7 @@
       </c>
     </row>
     <row r="20" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="87"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="39"/>
       <c r="D20" s="37" t="s">
         <v>31</v>
@@ -1713,7 +1807,7 @@
       </c>
     </row>
     <row r="21" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="82" t="s">
+      <c r="B21" s="77" t="s">
         <v>11</v>
       </c>
       <c r="C21" s="7"/>
@@ -1722,21 +1816,21 @@
       <c r="F21" s="8"/>
     </row>
     <row r="22" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="86"/>
+      <c r="B22" s="79"/>
       <c r="C22" s="18"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
       <c r="F22" s="19"/>
     </row>
     <row r="23" spans="2:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="86"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
     </row>
     <row r="24" spans="2:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="87"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -1791,10 +1885,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:F60"/>
+  <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1805,114 +1899,162 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="33" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B6" s="34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="48" t="s">
+    <row r="11" spans="2:11" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="58"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="50" t="s">
+      <c r="D11" s="82"/>
+      <c r="E11" s="83"/>
+      <c r="F11" s="84"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C12" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="51" t="s">
+      <c r="D12" s="53"/>
+      <c r="E12" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="77"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="50" t="s">
+      <c r="F12" s="61"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C13" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="51" t="s">
+      <c r="D13" s="54"/>
+      <c r="E13" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="73"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="50" t="s">
+      <c r="F13" s="58"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C14" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="54"/>
-      <c r="E14" s="51" t="s">
+      <c r="D14" s="52"/>
+      <c r="E14" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="73"/>
-    </row>
-    <row r="15" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="52" t="s">
+      <c r="F14" s="58"/>
+    </row>
+    <row r="15" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="74"/>
-    </row>
-    <row r="16" spans="2:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="52" t="s">
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="88"/>
+    </row>
+    <row r="16" spans="2:11" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="74"/>
-    </row>
-    <row r="17" spans="3:6" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="53" t="s">
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="88"/>
+    </row>
+    <row r="17" spans="3:10" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
-    </row>
-    <row r="26" spans="3:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="3:6" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="3:6" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+    </row>
+    <row r="20" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="89" t="s">
+        <v>72</v>
+      </c>
+      <c r="J21" s="90"/>
+    </row>
+    <row r="22" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I22" s="91"/>
+      <c r="J22" s="92"/>
+    </row>
+    <row r="23" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I23" s="71" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="74">
+        <f xml:space="preserve"> IFERROR(((J24 / 20) * IF(J25 = "C", 50, IF(J25 = "UC", 400, IF(J25 = "R", 4500, IF(J25 = "VR", 45000, IF(J25 = "L", 450000, ERF)))))) + IF(J25 = "C", 50, IF(J25 = "UC", 100, IF(J25 = "R", 500, IF(J25 = "VR", 5000, IF(J25 = "L", 50000, ERF))))), "N/A")</f>
+        <v>4775</v>
+      </c>
+    </row>
+    <row r="24" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I24" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="J24" s="58">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="3:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="73" t="s">
+        <v>69</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="3:10" ht="61.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="76"/>
+    </row>
+    <row r="27" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="96" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="98.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="51" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1926,13 +2068,15 @@
     <row r="59" ht="126.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="60" ht="78" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="D16:F16"/>
+    <mergeCell ref="I21:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1941,7 +2085,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,74 +2098,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="76"/>
+      <c r="E3" s="60"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2039,7 +2185,7 @@
   <dimension ref="B1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2052,74 +2198,76 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="57"/>
+      <c r="D3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="75"/>
+      <c r="E3" s="59"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="2:5" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2136,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2150,228 +2298,229 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95"/>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="51" t="s">
+      <c r="C3" s="63"/>
+      <c r="D3" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="78"/>
+      <c r="E3" s="62"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="51" t="s">
+      <c r="C4" s="56"/>
+      <c r="D4" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="73" t="s">
+      <c r="E4" s="58" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="51" t="s">
+      <c r="C5" s="52" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="58" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="61"/>
-      <c r="E6" s="74"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
     </row>
     <row r="7" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="74"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="88"/>
     </row>
     <row r="8" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
     </row>
     <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="93" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="72"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="95"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="71"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="57"/>
+      <c r="D11" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="76"/>
+      <c r="E11" s="60"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="73" t="s">
+      <c r="E12" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="73" t="s">
+      <c r="E13" s="58" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="74"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="15" spans="2:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="70" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="61"/>
-      <c r="E15" s="74"/>
+      <c r="C15" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
     </row>
     <row r="16" spans="2:5" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
     </row>
     <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="2:5" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="72"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="95"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="71"/>
-      <c r="D19" s="51" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="80"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="51" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="E20" s="73" t="s">
+      <c r="E20" s="58" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="51" t="s">
+      <c r="C21" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="73" t="s">
+      <c r="E21" s="58" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:5" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="61" t="s">
+      <c r="C22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="61"/>
-      <c r="E22" s="74"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
     </row>
     <row r="23" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="70" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="74"/>
+      <c r="C23" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
     </row>
     <row r="24" spans="2:5" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="53" t="s">
+      <c r="B24" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
+      <c r="C24" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="85"/>
+      <c r="E24" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C23:E23"/>
     <mergeCell ref="C24:E24"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C14:E14"/>
@@ -2379,6 +2528,11 @@
     <mergeCell ref="C16:E16"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C23:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
